--- a/reconstruction-tools-assessment/supplementary material/S8_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S8_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1127A5AF-871E-4125-8CE3-E5601DC811C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="1098" yWindow="1098" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S8 Table" sheetId="1" r:id="rId1"/>
@@ -78,7 +79,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">S8 Table. Metabolic processes associated to the 92 genes of iLP728 which were recovered in all the draft networks of </t>
+      <t xml:space="preserve">S8 Table. Metabolic processes associated to the 79 genes of iLP728 which were recovered in all the draft networks of </t>
     </r>
     <r>
       <rPr>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,12 +191,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,18 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="37.20703125" customWidth="1"/>
     <col min="2" max="2" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -541,157 +535,157 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4">
+        <v>27.631578947368421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>47</v>
-      </c>
-      <c r="C4" s="5">
-        <v>26.857142857142858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>26.315789473684209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.2368421052631575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.6052631578947372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.2894736842105261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>46</v>
-      </c>
-      <c r="C5" s="5">
-        <v>26.285714285714285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5">
-        <v>13.714285714285714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="C12" s="4">
+        <v>2.6315789473684212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.6315789473684212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5">
-        <v>7.4285714285714288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5.7142857142857144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4.5714285714285712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4.5714285714285712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2.8571428571428572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2.8571428571428572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2.8571428571428572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="5">
-        <v>0.5714285714285714</v>
+      <c r="C14" s="4">
+        <v>0.65789473684210531</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
-        <v>0.5714285714285714</v>
+      <c r="C15" s="4">
+        <v>0.65789473684210531</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.5714285714285714</v>
+      <c r="C16" s="4">
+        <v>0.65789473684210531</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="5">
-        <v>0.5714285714285714</v>
+      <c r="C17" s="4">
+        <v>0.65789473684210531</v>
       </c>
     </row>
   </sheetData>
